--- a/biology/Médecine/Électrogastrographie/Électrogastrographie.xlsx
+++ b/biology/Médecine/Électrogastrographie/Électrogastrographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrogastrographie</t>
+          <t>Électrogastrographie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrogastrographie (EGG) est une technique d'électrodiagnostic. Elle enregistre les signaux électriques qui traversent les muscles de l'estomac et en contrôlent les contractions.
 Un électrogastrogramme est un graphique produit par un électrogastrographe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrogastrographie</t>
+          <t>Électrogastrographie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Electrogastrogram » (voir la liste des auteurs).
  Portail de la médecine                     </t>
